--- a/data_year/zb/国民经济核算/分行业增加值指数/分行业增加值指数(1978年=100).xlsx
+++ b/data_year/zb/国民经济核算/分行业增加值指数/分行业增加值指数(1978年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,778 +488,482 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>782.9358136967001</v>
+        <v>1841.0970555634</v>
       </c>
       <c r="C2" t="n">
-        <v>1427.6637816703</v>
+        <v>3708.3382570724</v>
       </c>
       <c r="D2" t="n">
-        <v>1002.1660288955</v>
+        <v>2902.5738797039</v>
       </c>
       <c r="E2" t="n">
-        <v>276.9917031049</v>
+        <v>418.9497751491</v>
       </c>
       <c r="F2" t="n">
-        <v>760.1975121446</v>
+        <v>2073.0625039957</v>
       </c>
       <c r="G2" t="n">
-        <v>1109.2036180728</v>
+        <v>3266.886041957</v>
       </c>
       <c r="H2" t="n">
-        <v>797.3263782892</v>
+        <v>2631.4087842392</v>
       </c>
       <c r="I2" t="n">
-        <v>1172.5031027589</v>
+        <v>3203.0819261279</v>
       </c>
       <c r="J2" t="n">
-        <v>720.7147393512</v>
+        <v>2417.0422560424</v>
       </c>
       <c r="K2" t="n">
-        <v>1528.437879231</v>
+        <v>4993.0614143496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>851.8987376502</v>
+        <v>2018.9690755915</v>
       </c>
       <c r="C3" t="n">
-        <v>1536.8167786691</v>
+        <v>3897.8900146855</v>
       </c>
       <c r="D3" t="n">
-        <v>1130.9561469389</v>
+        <v>3183.4979829492</v>
       </c>
       <c r="E3" t="n">
-        <v>284.7463049533</v>
+        <v>436.760805435</v>
       </c>
       <c r="F3" t="n">
-        <v>823.5655506589</v>
+        <v>2271.0572247187</v>
       </c>
       <c r="G3" t="n">
-        <v>1205.8969274944</v>
+        <v>3624.4063392266</v>
       </c>
       <c r="H3" t="n">
-        <v>851.5411181575</v>
+        <v>2887.322688534</v>
       </c>
       <c r="I3" t="n">
-        <v>1301.3716258668</v>
+        <v>3429.4340108502</v>
       </c>
       <c r="J3" t="n">
-        <v>786.2599735066</v>
+        <v>2718.3060480558</v>
       </c>
       <c r="K3" t="n">
-        <v>1635.6917533564</v>
+        <v>5376.6769345643</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>912.6190792984</v>
+        <v>2141.8859923061</v>
       </c>
       <c r="C4" t="n">
-        <v>1723.4104478894</v>
+        <v>4149.4114666101</v>
       </c>
       <c r="D4" t="n">
-        <v>1285.5949537248</v>
+        <v>3444.8967066859</v>
       </c>
       <c r="E4" t="n">
-        <v>293.0034742758</v>
+        <v>456.6165128393</v>
       </c>
       <c r="F4" t="n">
-        <v>898.7869873737</v>
+        <v>2449.6471794721</v>
       </c>
       <c r="G4" t="n">
-        <v>1326.9898185613</v>
+        <v>3918.8859335576</v>
       </c>
       <c r="H4" t="n">
-        <v>926.5559921622</v>
+        <v>3168.9424600005</v>
       </c>
       <c r="I4" t="n">
-        <v>1429.9875391585</v>
+        <v>3578.5046680497</v>
       </c>
       <c r="J4" t="n">
-        <v>855.5361406114</v>
+        <v>2998.2442416601</v>
       </c>
       <c r="K4" t="n">
-        <v>1758.7795190359</v>
+        <v>5884.9293933075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>968.5396958099</v>
+        <v>2283.2110885242</v>
       </c>
       <c r="C5" t="n">
-        <v>1936.3838432139</v>
+        <v>4311.4019463023</v>
       </c>
       <c r="D5" t="n">
-        <v>1424.7522096576</v>
+        <v>3705.3925262991</v>
       </c>
       <c r="E5" t="n">
-        <v>300.3265737326</v>
+        <v>474.7006222227</v>
       </c>
       <c r="F5" t="n">
-        <v>989.0074991185</v>
+        <v>2639.8904562937</v>
       </c>
       <c r="G5" t="n">
-        <v>1496.1979304105</v>
+        <v>4221.9772976237</v>
       </c>
       <c r="H5" t="n">
-        <v>1038.5325817116</v>
+        <v>3475.6289216385</v>
       </c>
       <c r="I5" t="n">
-        <v>1569.6512227803</v>
+        <v>3823.4949599148</v>
       </c>
       <c r="J5" t="n">
-        <v>940.5589805517</v>
+        <v>3313.5058756811</v>
       </c>
       <c r="K5" t="n">
-        <v>1889.6367857867</v>
+        <v>6506.8203926133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1108.754043017</v>
+        <v>2441.2998666103</v>
       </c>
       <c r="C6" t="n">
-        <v>2175.3151885951</v>
+        <v>4578.4740648009</v>
       </c>
       <c r="D6" t="n">
-        <v>1605.7691059585</v>
+        <v>4039.6004768864</v>
       </c>
       <c r="E6" t="n">
-        <v>319.2448859412</v>
+        <v>494.6068769385</v>
       </c>
       <c r="F6" t="n">
-        <v>1089.0319729793</v>
+        <v>2835.92248236</v>
       </c>
       <c r="G6" t="n">
-        <v>1669.0646299967</v>
+        <v>4506.4596560878</v>
       </c>
       <c r="H6" t="n">
-        <v>1123.1750069397</v>
+        <v>3810.7713462622</v>
       </c>
       <c r="I6" t="n">
-        <v>1661.3813308746</v>
+        <v>3904.3982260075</v>
       </c>
       <c r="J6" t="n">
-        <v>1002.3324709069</v>
+        <v>3653.4136989939</v>
       </c>
       <c r="K6" t="n">
-        <v>1978.2203093522</v>
+        <v>7190.8064451156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1232.9906332117</v>
+        <v>2549.8051918862</v>
       </c>
       <c r="C7" t="n">
-        <v>2442.0196204327</v>
+        <v>4879.1401358847</v>
       </c>
       <c r="D7" t="n">
-        <v>1798.5623404339</v>
+        <v>4431.4501956482</v>
       </c>
       <c r="E7" t="n">
-        <v>335.9522695108</v>
+        <v>514.6335697634</v>
       </c>
       <c r="F7" t="n">
-        <v>1213.1227209784</v>
+        <v>3035.6091110882</v>
       </c>
       <c r="G7" t="n">
-        <v>1863.4500913989</v>
+        <v>4762.8548080872</v>
       </c>
       <c r="H7" t="n">
-        <v>1302.9126232584</v>
+        <v>4090.3090345119</v>
       </c>
       <c r="I7" t="n">
-        <v>1862.8285237325</v>
+        <v>4054.6239371822</v>
       </c>
       <c r="J7" t="n">
-        <v>1132.9023003842</v>
+        <v>3899.1093186245</v>
       </c>
       <c r="K7" t="n">
-        <v>2257.7376278427</v>
+        <v>8394.4510716063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1355.9180539535</v>
+        <v>2725.3187623613</v>
       </c>
       <c r="C8" t="n">
-        <v>2748.9352647589</v>
+        <v>5255.8022657662</v>
       </c>
       <c r="D8" t="n">
-        <v>1993.9005317625</v>
+        <v>4864.9489756834</v>
       </c>
       <c r="E8" t="n">
-        <v>352.7517261064</v>
+        <v>532.3999534421</v>
       </c>
       <c r="F8" t="n">
-        <v>1367.4435244805</v>
+        <v>3243.5107605796</v>
       </c>
       <c r="G8" t="n">
-        <v>2104.3678570248</v>
+        <v>5033.4300538079</v>
       </c>
       <c r="H8" t="n">
-        <v>1527.3796204317</v>
+        <v>4405.5575721899</v>
       </c>
       <c r="I8" t="n">
-        <v>2149.0612778371</v>
+        <v>4410.8182536677</v>
       </c>
       <c r="J8" t="n">
-        <v>1353.399851592</v>
+        <v>4198.3182381588</v>
       </c>
       <c r="K8" t="n">
-        <v>2793.5376235606</v>
+        <v>8798.106028996899</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1515.9569846201</v>
+        <v>2985.7484504263</v>
       </c>
       <c r="C9" t="n">
-        <v>3013.3105966425</v>
+        <v>5684.7852706779</v>
       </c>
       <c r="D9" t="n">
-        <v>2225.0777811598</v>
+        <v>5356.8381618158</v>
       </c>
       <c r="E9" t="n">
-        <v>365.9629402399</v>
+        <v>554.2437522552</v>
       </c>
       <c r="F9" t="n">
-        <v>1562.0425107916</v>
+        <v>3468.8439658698</v>
       </c>
       <c r="G9" t="n">
-        <v>2418.9111739795</v>
+        <v>5346.6657687151</v>
       </c>
       <c r="H9" t="n">
-        <v>1774.6957132324</v>
+        <v>4578.6618071079</v>
       </c>
       <c r="I9" t="n">
-        <v>2665.4912139116</v>
+        <v>4717.5734062668</v>
       </c>
       <c r="J9" t="n">
-        <v>1626.983304748</v>
+        <v>4526.4818459546</v>
       </c>
       <c r="K9" t="n">
-        <v>3514.1918918275</v>
+        <v>9216.857472609499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1627.0189560429</v>
+        <v>3232.5747342385</v>
       </c>
       <c r="C10" t="n">
-        <v>3302.5877097209</v>
+        <v>6064.7797806404</v>
       </c>
       <c r="D10" t="n">
-        <v>2474.5887668165</v>
+        <v>5948.8218785498</v>
       </c>
       <c r="E10" t="n">
-        <v>385.6492232418</v>
+        <v>574.4694951252</v>
       </c>
       <c r="F10" t="n">
-        <v>1712.7902180873</v>
+        <v>3702.9830881698</v>
       </c>
       <c r="G10" t="n">
-        <v>2660.1351897446</v>
+        <v>5672.5637962856</v>
       </c>
       <c r="H10" t="n">
-        <v>1943.5433829272</v>
+        <v>4799.4558923302</v>
       </c>
       <c r="I10" t="n">
-        <v>2681.8054810206</v>
+        <v>4881.3363965448</v>
       </c>
       <c r="J10" t="n">
-        <v>1884.8602527651</v>
+        <v>4828.9540679785</v>
       </c>
       <c r="K10" t="n">
-        <v>3938.9930467872</v>
+        <v>9657.635973415399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1681.8795376171</v>
+        <v>3442.54146648906</v>
       </c>
       <c r="C11" t="n">
-        <v>3426.6290280439</v>
+        <v>6397.72267375027</v>
       </c>
       <c r="D11" t="n">
-        <v>2686.5097233611</v>
+        <v>6525.37014580585</v>
       </c>
       <c r="E11" t="n">
-        <v>401.8001657034</v>
+        <v>593.13892938144</v>
       </c>
       <c r="F11" t="n">
-        <v>1873.7706713512</v>
+        <v>3923.32912474348</v>
       </c>
       <c r="G11" t="n">
-        <v>2901.8795517599</v>
+        <v>5944.26778937685</v>
       </c>
       <c r="H11" t="n">
-        <v>2311.7950260991</v>
+        <v>5051.06826062049</v>
       </c>
       <c r="I11" t="n">
-        <v>2988.8849729987</v>
+        <v>5007.24090881126</v>
       </c>
       <c r="J11" t="n">
-        <v>2109.159769602</v>
+        <v>5099.73484745418</v>
       </c>
       <c r="K11" t="n">
-        <v>4582.7493536529</v>
+        <v>10299.5848967956</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1841.0970555634</v>
+        <v>3470.96193705755</v>
       </c>
       <c r="C12" t="n">
-        <v>3708.3382570724</v>
+        <v>5321.95307409813</v>
       </c>
       <c r="D12" t="n">
-        <v>2902.5738797039</v>
+        <v>6768.1192907121</v>
       </c>
       <c r="E12" t="n">
-        <v>418.9497751491</v>
+        <v>612.766186132506</v>
       </c>
       <c r="F12" t="n">
-        <v>2073.0625039957</v>
+        <v>4011.15827537261</v>
       </c>
       <c r="G12" t="n">
-        <v>3266.886041957</v>
+        <v>6085.41260794443</v>
       </c>
       <c r="H12" t="n">
-        <v>2631.4087842392</v>
+        <v>5188.66935310005</v>
       </c>
       <c r="I12" t="n">
-        <v>3203.0819261279</v>
+        <v>5071.01904909561</v>
       </c>
       <c r="J12" t="n">
-        <v>2417.0422560424</v>
+        <v>5054.36026938069</v>
       </c>
       <c r="K12" t="n">
-        <v>4993.0614143496</v>
+        <v>10906.8497740937</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2018.9690755915</v>
+        <v>3996.1</v>
       </c>
       <c r="C13" t="n">
-        <v>3897.8900146855</v>
+        <v>6150.2</v>
       </c>
       <c r="D13" t="n">
-        <v>3183.4979829492</v>
+        <v>7385.2</v>
       </c>
       <c r="E13" t="n">
-        <v>436.760805435</v>
+        <v>656.2</v>
       </c>
       <c r="F13" t="n">
-        <v>2271.0572247187</v>
+        <v>4350</v>
       </c>
       <c r="G13" t="n">
-        <v>3624.4063392266</v>
+        <v>6716.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2887.322688534</v>
+        <v>5243.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3429.4340108502</v>
+        <v>5249.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2718.3060480558</v>
+        <v>5608.7</v>
       </c>
       <c r="K13" t="n">
-        <v>5376.6769345643</v>
+        <v>11338.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2141.8859923061</v>
+        <v>3965.5</v>
       </c>
       <c r="C14" t="n">
-        <v>4149.4114666101</v>
+        <v>6011.6</v>
       </c>
       <c r="D14" t="n">
-        <v>3444.8967066859</v>
+        <v>7728.4</v>
       </c>
       <c r="E14" t="n">
-        <v>456.6165128393</v>
+        <v>684.5</v>
       </c>
       <c r="F14" t="n">
-        <v>2449.6471794721</v>
+        <v>4480.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3918.8859335576</v>
+        <v>6946.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3168.9424600005</v>
+        <v>5531.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3578.5046680497</v>
+        <v>4980.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2998.2442416601</v>
+        <v>5660.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5884.9293933075</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2283.2110885242</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4311.4019463023</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3705.3925262991</v>
-      </c>
-      <c r="E15" t="n">
-        <v>474.7006222227</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2639.8904562937</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4221.9772976237</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3475.6289216385</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3823.4949599148</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3313.5058756811</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6506.8203926133</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2441.2998666103</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4578.4740648009</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4039.6004768864</v>
-      </c>
-      <c r="E16" t="n">
-        <v>494.6068769385</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2835.92248236</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4506.4596560878</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3810.7713462622</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3904.3982260075</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3653.4136989939</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7190.8064451156</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2549.8051918862</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4879.1401358847</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4431.4501956482</v>
-      </c>
-      <c r="E17" t="n">
-        <v>514.6335697634</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3035.6091110882</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4762.8548080872</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4090.3090345119</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4054.6239371822</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3899.1093186245</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8394.4510716063</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2725.3187623613</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5255.8022657662</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4864.9489756834</v>
-      </c>
-      <c r="E18" t="n">
-        <v>532.3999534421</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3243.5107605796</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5033.4300538079</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4405.5575721899</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4410.8182536677</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4198.3182381588</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8798.106028996899</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2985.7484504263</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5684.7852706779</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5356.8381618158</v>
-      </c>
-      <c r="E19" t="n">
-        <v>554.2437522552</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3468.8439658698</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5346.6657687151</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4578.6618071079</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4717.5734062668</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4526.4818459546</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9216.857472609499</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3232.5747342385</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6064.7797806404</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5948.8218785498</v>
-      </c>
-      <c r="E20" t="n">
-        <v>574.4694951252</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3702.9830881698</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5672.5637962856</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4799.4558923302</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4881.3363965448</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4828.9540679785</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9657.635973415399</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3442.54146648906</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6397.72267375027</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6525.37014580585</v>
-      </c>
-      <c r="E21" t="n">
-        <v>593.13892938144</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3923.32912474348</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5944.26778937685</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5051.06826062049</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5007.24090881126</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5099.73484745418</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10299.5848967956</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3471</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5322</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6768.1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>612.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4011.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6085.4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5188.7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5071</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5054.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10906.8</v>
+        <v>11972.2</v>
       </c>
     </row>
   </sheetData>
